--- a/Tables/BasicInfo.xlsx
+++ b/Tables/BasicInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magister\Documents\GitHub\BespalovPhd\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dliia\Documents\GitHub\BespalovPhd\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Model Family</t>
   </si>
@@ -54,17 +53,248 @@
     <t>C#, R, SAS,</t>
   </si>
   <si>
-    <t>MDACC</t>
-  </si>
-  <si>
-    <t>Micro Simulation</t>
+    <t>Bayesian Simulation Model (MDACC)</t>
+  </si>
+  <si>
+    <t>Micro Simulation,</t>
+  </si>
+  <si>
+    <t>University of Texas / M.D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>BCOS (Stanford)</t>
+  </si>
+  <si>
+    <t>Micro Simulation, Analytic,</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>C or C++,</t>
+  </si>
+  <si>
+    <t>CISNET-DFCI (Dana-Farber)</t>
+  </si>
+  <si>
+    <t>Analytic,</t>
+  </si>
+  <si>
+    <t>Dana-Farber Cancer Institute</t>
+  </si>
+  <si>
+    <t>Mathcad,</t>
+  </si>
+  <si>
+    <t>MISCAN-Fadia (Erasmus)</t>
+  </si>
+  <si>
+    <t>Erasmus University Medical Center</t>
+  </si>
+  <si>
+    <t>Delphi,</t>
+  </si>
+  <si>
+    <t>Spectrum/G-E (Georgetown/Einstein)</t>
+  </si>
+  <si>
+    <t>Georgetown University Medical Center / Albert Einstein College of Medicine</t>
+  </si>
+  <si>
+    <t>UWBCS (Wisconsin)</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>UW-Cervical (UWash)</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>HSPH-Cervical (Harvard)</t>
+  </si>
+  <si>
+    <t>Micro Simulation, Agent-based, Dynamic Transmission,</t>
+  </si>
+  <si>
+    <t>Harvard T.H. Chan School of Public Health</t>
+  </si>
+  <si>
+    <t>MISCAN-STDSIM (Erasmus)</t>
+  </si>
+  <si>
+    <t>Delphi, Java,</t>
+  </si>
+  <si>
+    <t>Policy1-Cervix (CCNSW)</t>
+  </si>
+  <si>
+    <t>Cancer Council, NSW</t>
+  </si>
+  <si>
+    <t>C or C++, C#, Python, Visual Basic,</t>
+  </si>
+  <si>
+    <t>UMN-Cervical (Minnesota)</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>Java,</t>
+  </si>
+  <si>
+    <t>CRC-SPIN (RAND)</t>
+  </si>
+  <si>
+    <t>RAND Corporation</t>
+  </si>
+  <si>
+    <t>C#,</t>
+  </si>
+  <si>
+    <t>MISCAN-Colon (Erasmus/MSK)</t>
+  </si>
+  <si>
+    <t>Erasmus University Medical Center / Memorial Sloan Kettering</t>
+  </si>
+  <si>
+    <t>SimCRC (Minnesota/MGH)</t>
+  </si>
+  <si>
+    <t>University Of Minnesota / MGH</t>
+  </si>
+  <si>
+    <t>EACMo (MGH)</t>
+  </si>
+  <si>
+    <t>Micro Simulation, Macro Simulation,</t>
+  </si>
+  <si>
+    <t>Massachusetts General Hospital Institute for Technology Assessment</t>
+  </si>
+  <si>
+    <t>MISCAN-ESO (Erasmus/UW)</t>
+  </si>
+  <si>
+    <t>Erasmus University Medical Center / University of Washington</t>
+  </si>
+  <si>
+    <t>MSCE-EAC (FHCRC)</t>
+  </si>
+  <si>
+    <t>Fred Hutch Cancer Research Center</t>
+  </si>
+  <si>
+    <t>Fortran, R,</t>
+  </si>
+  <si>
+    <t>LCOS (Stanford)</t>
+  </si>
+  <si>
+    <t>R,</t>
+  </si>
+  <si>
+    <t>LCPM (MGH)</t>
+  </si>
+  <si>
+    <t>LMO (FHCRC)</t>
+  </si>
+  <si>
+    <t>Fred Hutchinson Cancer Research Center</t>
+  </si>
+  <si>
+    <t>Fortran,</t>
+  </si>
+  <si>
+    <t>MISCAN-Lung (Erasmus)</t>
+  </si>
+  <si>
+    <t>SimSmoke (Georgetown)</t>
+  </si>
+  <si>
+    <t>Macro Simulation,</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>Visual Basic,</t>
+  </si>
+  <si>
+    <t>Smoking-Lung Cancer (Georgetown)</t>
+  </si>
+  <si>
+    <t>SAS (SAS and Excel),</t>
+  </si>
+  <si>
+    <t>UM-LCSc (Michigan)</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>UM-LCSm (Michigan)</t>
+  </si>
+  <si>
+    <t>YLCM (Yale)</t>
+  </si>
+  <si>
+    <t>Yale School of Medicine</t>
+  </si>
+  <si>
+    <t>SAS,</t>
+  </si>
+  <si>
+    <t>MISCAN-PRO (Erasmus)</t>
+  </si>
+  <si>
+    <t>PSAPC (FHCRC)</t>
+  </si>
+  <si>
+    <t>C or C++, R, Python,</t>
+  </si>
+  <si>
+    <t>SCANS (Michigan)</t>
+  </si>
+  <si>
+    <t>University Of Michigan</t>
+  </si>
+  <si>
+    <t>Delphi, R,</t>
+  </si>
+  <si>
+    <t>Macro Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Simulation, Agent-based, Dynamic Transmission </t>
+  </si>
+  <si>
+    <t>Micro Simulation, Macro Simulation, Dynamic Transmission</t>
+  </si>
+  <si>
+    <t>Cervical</t>
+  </si>
+  <si>
+    <t>Colorectal</t>
+  </si>
+  <si>
+    <t>Esophageal</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Prostate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,28 +319,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -126,27 +334,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -166,20 +359,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,25 +648,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -502,8 +689,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -512,39 +699,602 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2005</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2004</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2001</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="74" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1994</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1986</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="74" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="74" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="74" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2011</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2009</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="74" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2008</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2011</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1983</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2006</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2006</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
